--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3402,28 +3402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>882.9884673158978</v>
+        <v>1098.301769844781</v>
       </c>
       <c r="AB2" t="n">
-        <v>1208.143775683505</v>
+        <v>1502.744935156028</v>
       </c>
       <c r="AC2" t="n">
-        <v>1092.840229372709</v>
+        <v>1359.325067660499</v>
       </c>
       <c r="AD2" t="n">
-        <v>882988.4673158978</v>
+        <v>1098301.769844781</v>
       </c>
       <c r="AE2" t="n">
-        <v>1208143.775683505</v>
+        <v>1502744.935156028</v>
       </c>
       <c r="AF2" t="n">
         <v>3.680358707094197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.65046296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>1092840.22937271</v>
+        <v>1359325.067660499</v>
       </c>
     </row>
     <row r="3">
@@ -3508,28 +3508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>572.8606978879945</v>
+        <v>729.4428727947874</v>
       </c>
       <c r="AB3" t="n">
-        <v>783.813279680679</v>
+        <v>998.0559193061732</v>
       </c>
       <c r="AC3" t="n">
-        <v>709.0072403568014</v>
+        <v>902.8028631478718</v>
       </c>
       <c r="AD3" t="n">
-        <v>572860.6978879946</v>
+        <v>729442.8727947874</v>
       </c>
       <c r="AE3" t="n">
-        <v>783813.279680679</v>
+        <v>998055.9193061732</v>
       </c>
       <c r="AF3" t="n">
         <v>5.10219220171036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.76388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>709007.2403568014</v>
+        <v>902802.8631478718</v>
       </c>
     </row>
     <row r="4">
@@ -3614,28 +3614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>500.3251844788475</v>
+        <v>647.0846726965111</v>
       </c>
       <c r="AB4" t="n">
-        <v>684.56699019328</v>
+        <v>885.3697965443552</v>
       </c>
       <c r="AC4" t="n">
-        <v>619.2328774450377</v>
+        <v>800.8713457864749</v>
       </c>
       <c r="AD4" t="n">
-        <v>500325.1844788475</v>
+        <v>647084.6726965111</v>
       </c>
       <c r="AE4" t="n">
-        <v>684566.99019328</v>
+        <v>885369.7965443551</v>
       </c>
       <c r="AF4" t="n">
         <v>5.658042988017622e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.74305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>619232.8774450377</v>
+        <v>800871.3457864749</v>
       </c>
     </row>
     <row r="5">
@@ -3720,28 +3720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>471.1939523059271</v>
+        <v>608.0975994455379</v>
       </c>
       <c r="AB5" t="n">
-        <v>644.7083531550302</v>
+        <v>832.0259629340924</v>
       </c>
       <c r="AC5" t="n">
-        <v>583.17829278377</v>
+        <v>752.618572787435</v>
       </c>
       <c r="AD5" t="n">
-        <v>471193.9523059271</v>
+        <v>608097.5994455379</v>
       </c>
       <c r="AE5" t="n">
-        <v>644708.3531550302</v>
+        <v>832025.9629340924</v>
       </c>
       <c r="AF5" t="n">
         <v>5.944443783499678e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.40046296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>583178.29278377</v>
+        <v>752618.572787435</v>
       </c>
     </row>
     <row r="6">
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>448.9336252016129</v>
+        <v>576.1844017161415</v>
       </c>
       <c r="AB6" t="n">
-        <v>614.2507915545858</v>
+        <v>788.3609178898138</v>
       </c>
       <c r="AC6" t="n">
-        <v>555.627558115016</v>
+        <v>713.1208583579067</v>
       </c>
       <c r="AD6" t="n">
-        <v>448933.6252016129</v>
+        <v>576184.4017161415</v>
       </c>
       <c r="AE6" t="n">
-        <v>614250.7915545858</v>
+        <v>788360.9178898138</v>
       </c>
       <c r="AF6" t="n">
         <v>6.128190505979877e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.61342592592592</v>
       </c>
       <c r="AH6" t="n">
-        <v>555627.558115016</v>
+        <v>713120.8583579067</v>
       </c>
     </row>
     <row r="7">
@@ -3932,28 +3932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>438.7542681782261</v>
+        <v>556.1833690334827</v>
       </c>
       <c r="AB7" t="n">
-        <v>600.3229461936506</v>
+        <v>760.9946225901134</v>
       </c>
       <c r="AC7" t="n">
-        <v>543.0289667674746</v>
+        <v>688.3663638727731</v>
       </c>
       <c r="AD7" t="n">
-        <v>438754.2681782261</v>
+        <v>556183.3690334826</v>
       </c>
       <c r="AE7" t="n">
-        <v>600322.9461936506</v>
+        <v>760994.6225901134</v>
       </c>
       <c r="AF7" t="n">
         <v>6.263254517485618e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.05787037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>543028.9667674745</v>
+        <v>688366.3638727731</v>
       </c>
     </row>
     <row r="8">
@@ -4038,28 +4038,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>423.006589808465</v>
+        <v>550.2232009042126</v>
       </c>
       <c r="AB8" t="n">
-        <v>578.7762779096062</v>
+        <v>752.8396576115862</v>
       </c>
       <c r="AC8" t="n">
-        <v>523.5386822635203</v>
+        <v>680.9896973062313</v>
       </c>
       <c r="AD8" t="n">
-        <v>423006.589808465</v>
+        <v>550223.2009042127</v>
       </c>
       <c r="AE8" t="n">
-        <v>578776.2779096061</v>
+        <v>752839.6576115862</v>
       </c>
       <c r="AF8" t="n">
         <v>6.335803961416915e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.76851851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>523538.6822635203</v>
+        <v>680989.6973062312</v>
       </c>
     </row>
     <row r="9">
@@ -4144,28 +4144,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>417.146158087865</v>
+        <v>544.3627691836126</v>
       </c>
       <c r="AB9" t="n">
-        <v>570.7577766854807</v>
+        <v>744.8211563874607</v>
       </c>
       <c r="AC9" t="n">
-        <v>516.2854555421883</v>
+        <v>673.7364705848992</v>
       </c>
       <c r="AD9" t="n">
-        <v>417146.158087865</v>
+        <v>544362.7691836127</v>
       </c>
       <c r="AE9" t="n">
-        <v>570757.7766854807</v>
+        <v>744821.1563874608</v>
       </c>
       <c r="AF9" t="n">
         <v>6.395606400246265e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.53703703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>516285.4555421883</v>
+        <v>673736.4705848992</v>
       </c>
     </row>
     <row r="10">
@@ -4250,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>410.9578893962008</v>
+        <v>528.3528248326764</v>
       </c>
       <c r="AB10" t="n">
-        <v>562.290714454399</v>
+        <v>722.9156442176138</v>
       </c>
       <c r="AC10" t="n">
-        <v>508.6264778468445</v>
+        <v>653.921589751963</v>
       </c>
       <c r="AD10" t="n">
-        <v>410957.8893962008</v>
+        <v>528352.8248326764</v>
       </c>
       <c r="AE10" t="n">
-        <v>562290.714454399</v>
+        <v>722915.6442176139</v>
       </c>
       <c r="AF10" t="n">
         <v>6.460833096565804e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.29398148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>508626.4778468445</v>
+        <v>653921.589751963</v>
       </c>
     </row>
     <row r="11">
@@ -4356,28 +4356,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>405.8313402957807</v>
+        <v>523.2262757322565</v>
       </c>
       <c r="AB11" t="n">
-        <v>555.27634380782</v>
+        <v>715.9012735710351</v>
       </c>
       <c r="AC11" t="n">
-        <v>502.2815488900441</v>
+        <v>647.5766607951626</v>
       </c>
       <c r="AD11" t="n">
-        <v>405831.3402957807</v>
+        <v>523226.2757322565</v>
       </c>
       <c r="AE11" t="n">
-        <v>555276.34380782</v>
+        <v>715901.273571035</v>
       </c>
       <c r="AF11" t="n">
         <v>6.501786240616742e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.14351851851852</v>
       </c>
       <c r="AH11" t="n">
-        <v>502281.5488900441</v>
+        <v>647576.6607951627</v>
       </c>
     </row>
     <row r="12">
@@ -4462,28 +4462,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>405.5660735882816</v>
+        <v>522.9610090247573</v>
       </c>
       <c r="AB12" t="n">
-        <v>554.9133941958785</v>
+        <v>715.5383239590935</v>
       </c>
       <c r="AC12" t="n">
-        <v>501.9532386796633</v>
+        <v>647.248350584782</v>
       </c>
       <c r="AD12" t="n">
-        <v>405566.0735882816</v>
+        <v>522961.0090247573</v>
       </c>
       <c r="AE12" t="n">
-        <v>554913.3941958785</v>
+        <v>715538.3239590935</v>
       </c>
       <c r="AF12" t="n">
         <v>6.502328666365761e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.14351851851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>501953.2386796633</v>
+        <v>647248.350584782</v>
       </c>
     </row>
   </sheetData>
@@ -4759,28 +4759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>708.1066727953917</v>
+        <v>891.9356214209605</v>
       </c>
       <c r="AB2" t="n">
-        <v>968.8627891802886</v>
+        <v>1220.385666650633</v>
       </c>
       <c r="AC2" t="n">
-        <v>876.3958843883862</v>
+        <v>1103.913771447537</v>
       </c>
       <c r="AD2" t="n">
-        <v>708106.6727953916</v>
+        <v>891935.6214209605</v>
       </c>
       <c r="AE2" t="n">
-        <v>968862.7891802886</v>
+        <v>1220385.666650633</v>
       </c>
       <c r="AF2" t="n">
         <v>4.596466302865004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.36111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>876395.8843883862</v>
+        <v>1103913.771447537</v>
       </c>
     </row>
     <row r="3">
@@ -4865,28 +4865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>497.8332038367392</v>
+        <v>643.0072756695801</v>
       </c>
       <c r="AB3" t="n">
-        <v>681.1573523403206</v>
+        <v>879.7909220500468</v>
       </c>
       <c r="AC3" t="n">
-        <v>616.148650643308</v>
+        <v>795.8249112439037</v>
       </c>
       <c r="AD3" t="n">
-        <v>497833.2038367392</v>
+        <v>643007.2756695801</v>
       </c>
       <c r="AE3" t="n">
-        <v>681157.3523403206</v>
+        <v>879790.9220500467</v>
       </c>
       <c r="AF3" t="n">
         <v>5.986030087690713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.69212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>616148.6506433079</v>
+        <v>795824.9112439037</v>
       </c>
     </row>
     <row r="4">
@@ -4971,28 +4971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>447.8628690430084</v>
+        <v>583.254906499256</v>
       </c>
       <c r="AB4" t="n">
-        <v>612.7857357399552</v>
+        <v>798.0350944627272</v>
       </c>
       <c r="AC4" t="n">
-        <v>554.3023251711148</v>
+        <v>721.8717450964936</v>
       </c>
       <c r="AD4" t="n">
-        <v>447862.8690430084</v>
+        <v>583254.906499256</v>
       </c>
       <c r="AE4" t="n">
-        <v>612785.7357399552</v>
+        <v>798035.0944627272</v>
       </c>
       <c r="AF4" t="n">
         <v>6.50134829641465e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.41203703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>554302.3251711149</v>
+        <v>721871.7450964935</v>
       </c>
     </row>
     <row r="5">
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>422.6442325439879</v>
+        <v>548.3898862689082</v>
       </c>
       <c r="AB5" t="n">
-        <v>578.2804847142743</v>
+        <v>750.331235647429</v>
       </c>
       <c r="AC5" t="n">
-        <v>523.090206874901</v>
+        <v>678.7206756137409</v>
       </c>
       <c r="AD5" t="n">
-        <v>422644.2325439879</v>
+        <v>548389.8862689082</v>
       </c>
       <c r="AE5" t="n">
-        <v>578280.4847142743</v>
+        <v>750331.235647429</v>
       </c>
       <c r="AF5" t="n">
         <v>6.774216187529918e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.34722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>523090.206874901</v>
+        <v>678720.6756137409</v>
       </c>
     </row>
     <row r="6">
@@ -5183,28 +5183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>401.6037944013258</v>
+        <v>527.4167679339505</v>
       </c>
       <c r="AB6" t="n">
-        <v>549.4920290088648</v>
+        <v>721.6348898728612</v>
       </c>
       <c r="AC6" t="n">
-        <v>497.0492809771645</v>
+        <v>652.7630688043236</v>
       </c>
       <c r="AD6" t="n">
-        <v>401603.7944013258</v>
+        <v>527416.7679339505</v>
       </c>
       <c r="AE6" t="n">
-        <v>549492.0290088649</v>
+        <v>721634.8898728612</v>
       </c>
       <c r="AF6" t="n">
         <v>6.959837575123826e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.67592592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>497049.2809771645</v>
+        <v>652763.0688043236</v>
       </c>
     </row>
     <row r="7">
@@ -5289,28 +5289,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>394.233203001901</v>
+        <v>510.3324729954939</v>
       </c>
       <c r="AB7" t="n">
-        <v>539.4072606886284</v>
+        <v>698.2594038321661</v>
       </c>
       <c r="AC7" t="n">
-        <v>487.9269887913501</v>
+        <v>631.6185063436518</v>
       </c>
       <c r="AD7" t="n">
-        <v>394233.203001901</v>
+        <v>510332.4729954939</v>
       </c>
       <c r="AE7" t="n">
-        <v>539407.2606886284</v>
+        <v>698259.4038321661</v>
       </c>
       <c r="AF7" t="n">
         <v>7.044710024127596e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.375</v>
       </c>
       <c r="AH7" t="n">
-        <v>487926.9887913502</v>
+        <v>631618.5063436518</v>
       </c>
     </row>
     <row r="8">
@@ -5395,28 +5395,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>387.0928932245253</v>
+        <v>503.1921632181184</v>
       </c>
       <c r="AB8" t="n">
-        <v>529.6375738429879</v>
+        <v>688.4897169865255</v>
       </c>
       <c r="AC8" t="n">
-        <v>479.0897071464159</v>
+        <v>622.7812246987174</v>
       </c>
       <c r="AD8" t="n">
-        <v>387092.8932245253</v>
+        <v>503192.1632181184</v>
       </c>
       <c r="AE8" t="n">
-        <v>529637.5738429879</v>
+        <v>688489.7169865256</v>
       </c>
       <c r="AF8" t="n">
         <v>7.125873012947636e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.09722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>479089.707146416</v>
+        <v>622781.2246987175</v>
       </c>
     </row>
     <row r="9">
@@ -5501,28 +5501,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>386.2224677443252</v>
+        <v>502.3217377379182</v>
       </c>
       <c r="AB9" t="n">
-        <v>528.4466193005161</v>
+        <v>687.2987624440535</v>
       </c>
       <c r="AC9" t="n">
-        <v>478.0124156339623</v>
+        <v>621.7039331862641</v>
       </c>
       <c r="AD9" t="n">
-        <v>386222.4677443252</v>
+        <v>502321.7377379182</v>
       </c>
       <c r="AE9" t="n">
-        <v>528446.6193005161</v>
+        <v>687298.7624440535</v>
       </c>
       <c r="AF9" t="n">
         <v>7.145162205903037e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.03935185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>478012.4156339624</v>
+        <v>621703.933186264</v>
       </c>
     </row>
   </sheetData>
@@ -5798,28 +5798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>416.593067816711</v>
+        <v>547.502492365178</v>
       </c>
       <c r="AB2" t="n">
-        <v>570.0010141758671</v>
+        <v>749.1170641592892</v>
       </c>
       <c r="AC2" t="n">
-        <v>515.6009173843695</v>
+        <v>677.6223829483288</v>
       </c>
       <c r="AD2" t="n">
-        <v>416593.067816711</v>
+        <v>547502.492365178</v>
       </c>
       <c r="AE2" t="n">
-        <v>570001.0141758671</v>
+        <v>749117.0641592891</v>
       </c>
       <c r="AF2" t="n">
         <v>8.545943096073219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.04398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>515600.9173843695</v>
+        <v>677622.3829483287</v>
       </c>
     </row>
     <row r="3">
@@ -5904,28 +5904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.5011480624169</v>
+        <v>462.0882452600808</v>
       </c>
       <c r="AB3" t="n">
-        <v>465.8886926294633</v>
+        <v>632.2495230594601</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.4249296837933</v>
+        <v>571.9085159464433</v>
       </c>
       <c r="AD3" t="n">
-        <v>340501.1480624169</v>
+        <v>462088.2452600808</v>
       </c>
       <c r="AE3" t="n">
-        <v>465888.6926294633</v>
+        <v>632249.5230594601</v>
       </c>
       <c r="AF3" t="n">
         <v>9.767650112449137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.53703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>421424.9296837933</v>
+        <v>571908.5159464433</v>
       </c>
     </row>
     <row r="4">
@@ -6010,28 +6010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>338.7801730613019</v>
+        <v>450.9786341303157</v>
       </c>
       <c r="AB4" t="n">
-        <v>463.5339787088792</v>
+        <v>617.0488629902635</v>
       </c>
       <c r="AC4" t="n">
-        <v>419.2949463549281</v>
+        <v>558.1585855399904</v>
       </c>
       <c r="AD4" t="n">
-        <v>338780.1730613019</v>
+        <v>450978.6341303157</v>
       </c>
       <c r="AE4" t="n">
-        <v>463533.9787088792</v>
+        <v>617048.8629902635</v>
       </c>
       <c r="AF4" t="n">
         <v>9.83060975526627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.38657407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>419294.9463549281</v>
+        <v>558158.5855399905</v>
       </c>
     </row>
   </sheetData>
@@ -6307,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>495.9594825511007</v>
+        <v>647.646439187982</v>
       </c>
       <c r="AB2" t="n">
-        <v>678.5936442145608</v>
+        <v>886.1384302413741</v>
       </c>
       <c r="AC2" t="n">
-        <v>613.8296192228837</v>
+        <v>801.5666221622347</v>
       </c>
       <c r="AD2" t="n">
-        <v>495959.4825511007</v>
+        <v>647646.439187982</v>
       </c>
       <c r="AE2" t="n">
-        <v>678593.6442145607</v>
+        <v>886138.4302413741</v>
       </c>
       <c r="AF2" t="n">
         <v>6.736101679540665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.82175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>613829.6192228837</v>
+        <v>801566.6221622347</v>
       </c>
     </row>
     <row r="3">
@@ -6413,28 +6413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>391.319697326987</v>
+        <v>524.0073482881297</v>
       </c>
       <c r="AB3" t="n">
-        <v>535.4208736894122</v>
+        <v>716.96997150047</v>
       </c>
       <c r="AC3" t="n">
-        <v>484.3210569724098</v>
+        <v>648.5433636941394</v>
       </c>
       <c r="AD3" t="n">
-        <v>391319.6973269869</v>
+        <v>524007.3482881297</v>
       </c>
       <c r="AE3" t="n">
-        <v>535420.8736894123</v>
+        <v>716969.9715004701</v>
       </c>
       <c r="AF3" t="n">
         <v>8.015419355672609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.90277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>484321.0569724098</v>
+        <v>648543.3636941394</v>
       </c>
     </row>
     <row r="4">
@@ -6519,28 +6519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>361.9177063949701</v>
+        <v>485.0554674199296</v>
       </c>
       <c r="AB4" t="n">
-        <v>495.1917725719335</v>
+        <v>663.674289660896</v>
       </c>
       <c r="AC4" t="n">
-        <v>447.9313648036851</v>
+        <v>600.334146928375</v>
       </c>
       <c r="AD4" t="n">
-        <v>361917.7063949701</v>
+        <v>485055.4674199296</v>
       </c>
       <c r="AE4" t="n">
-        <v>495191.7725719335</v>
+        <v>663674.2896608959</v>
       </c>
       <c r="AF4" t="n">
         <v>8.484783488356936e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.4675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>447931.3648036851</v>
+        <v>600334.146928375</v>
       </c>
     </row>
     <row r="5">
@@ -6625,28 +6625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>355.1962042091235</v>
+        <v>468.9197259431656</v>
       </c>
       <c r="AB5" t="n">
-        <v>485.9951167495097</v>
+        <v>641.596656313714</v>
       </c>
       <c r="AC5" t="n">
-        <v>439.612424905366</v>
+        <v>580.3635719216951</v>
       </c>
       <c r="AD5" t="n">
-        <v>355196.2042091235</v>
+        <v>468919.7259431657</v>
       </c>
       <c r="AE5" t="n">
-        <v>485995.1167495097</v>
+        <v>641596.656313714</v>
       </c>
       <c r="AF5" t="n">
         <v>8.631134704356328e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.05092592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>439612.424905366</v>
+        <v>580363.5719216951</v>
       </c>
     </row>
   </sheetData>
@@ -6922,28 +6922,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.9086500820952</v>
+        <v>476.1074917596941</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.9699166238032</v>
+        <v>651.4312746057359</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.4941912477973</v>
+        <v>589.2595880469</v>
       </c>
       <c r="AD2" t="n">
-        <v>355908.6500820952</v>
+        <v>476107.4917596941</v>
       </c>
       <c r="AE2" t="n">
-        <v>486969.9166238032</v>
+        <v>651431.2746057359</v>
       </c>
       <c r="AF2" t="n">
         <v>1.053138941598093e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.06481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>440494.1912477973</v>
+        <v>589259.5880469</v>
       </c>
     </row>
     <row r="3">
@@ -7028,28 +7028,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.0239011955206</v>
+        <v>446.2558972620431</v>
       </c>
       <c r="AB3" t="n">
-        <v>446.0802847751206</v>
+        <v>610.5870060546471</v>
       </c>
       <c r="AC3" t="n">
-        <v>403.5070084737941</v>
+        <v>552.3134391610359</v>
       </c>
       <c r="AD3" t="n">
-        <v>326023.9011955206</v>
+        <v>446255.8972620431</v>
       </c>
       <c r="AE3" t="n">
-        <v>446080.2847751206</v>
+        <v>610587.006054647</v>
       </c>
       <c r="AF3" t="n">
         <v>1.101245024746975e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.93055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>403507.0084737941</v>
+        <v>552313.4391610359</v>
       </c>
     </row>
   </sheetData>
@@ -7325,28 +7325,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>745.9245550563738</v>
+        <v>940.0689636141284</v>
       </c>
       <c r="AB2" t="n">
-        <v>1020.606884096979</v>
+        <v>1286.243828932514</v>
       </c>
       <c r="AC2" t="n">
-        <v>923.2015955095214</v>
+        <v>1163.486523153746</v>
       </c>
       <c r="AD2" t="n">
-        <v>745924.5550563738</v>
+        <v>940068.9636141284</v>
       </c>
       <c r="AE2" t="n">
-        <v>1020606.884096979</v>
+        <v>1286243.828932514</v>
       </c>
       <c r="AF2" t="n">
         <v>4.345701198161762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.56481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>923201.5955095214</v>
+        <v>1163486.523153746</v>
       </c>
     </row>
     <row r="3">
@@ -7431,28 +7431,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>521.1085512266079</v>
+        <v>666.6409964825241</v>
       </c>
       <c r="AB3" t="n">
-        <v>713.0037094749952</v>
+        <v>912.1276215124926</v>
       </c>
       <c r="AC3" t="n">
-        <v>644.9556361496922</v>
+        <v>825.0754414944965</v>
       </c>
       <c r="AD3" t="n">
-        <v>521108.5512266079</v>
+        <v>666640.9964825241</v>
       </c>
       <c r="AE3" t="n">
-        <v>713003.7094749952</v>
+        <v>912127.6215124927</v>
       </c>
       <c r="AF3" t="n">
         <v>5.738619117940396e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.20138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>644955.6361496921</v>
+        <v>825075.4414944965</v>
       </c>
     </row>
     <row r="4">
@@ -7537,28 +7537,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>458.1658270234809</v>
+        <v>594.0566633882748</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.8826973832643</v>
+        <v>812.814534778164</v>
       </c>
       <c r="AC4" t="n">
-        <v>567.0538925803965</v>
+        <v>735.2406563712998</v>
       </c>
       <c r="AD4" t="n">
-        <v>458165.8270234808</v>
+        <v>594056.6633882748</v>
       </c>
       <c r="AE4" t="n">
-        <v>626882.6973832643</v>
+        <v>812814.534778164</v>
       </c>
       <c r="AF4" t="n">
         <v>6.275370337131601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.70138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>567053.8925803965</v>
+        <v>735240.6563712998</v>
       </c>
     </row>
     <row r="5">
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>432.4960225637076</v>
+        <v>558.7120956484557</v>
       </c>
       <c r="AB5" t="n">
-        <v>591.7601384495557</v>
+        <v>764.4545379042643</v>
       </c>
       <c r="AC5" t="n">
-        <v>535.2833813765</v>
+        <v>691.4960697253631</v>
       </c>
       <c r="AD5" t="n">
-        <v>432496.0225637077</v>
+        <v>558712.0956484557</v>
       </c>
       <c r="AE5" t="n">
-        <v>591760.1384495557</v>
+        <v>764454.5379042643</v>
       </c>
       <c r="AF5" t="n">
         <v>6.537447409356063e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.63657407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>535283.3813765</v>
+        <v>691496.069725363</v>
       </c>
     </row>
     <row r="6">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>411.7394662851061</v>
+        <v>537.9213739510734</v>
       </c>
       <c r="AB6" t="n">
-        <v>563.360102434538</v>
+        <v>736.0077552559989</v>
       </c>
       <c r="AC6" t="n">
-        <v>509.5938049390547</v>
+        <v>665.7642080877378</v>
       </c>
       <c r="AD6" t="n">
-        <v>411739.4662851061</v>
+        <v>537921.3739510734</v>
       </c>
       <c r="AE6" t="n">
-        <v>563360.1024345381</v>
+        <v>736007.7552559988</v>
       </c>
       <c r="AF6" t="n">
         <v>6.716847128961648e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.95370370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>509593.8049390547</v>
+        <v>665764.2080877378</v>
       </c>
     </row>
     <row r="7">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>403.6696187778844</v>
+        <v>529.8515264438516</v>
       </c>
       <c r="AB7" t="n">
-        <v>552.3185810586116</v>
+        <v>724.9662338800724</v>
       </c>
       <c r="AC7" t="n">
-        <v>499.6060708663741</v>
+        <v>655.776474015057</v>
       </c>
       <c r="AD7" t="n">
-        <v>403669.6187778844</v>
+        <v>529851.5264438516</v>
       </c>
       <c r="AE7" t="n">
-        <v>552318.5810586116</v>
+        <v>724966.2338800724</v>
       </c>
       <c r="AF7" t="n">
         <v>6.825587394840419e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.54861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>499606.0708663741</v>
+        <v>655776.4740150571</v>
       </c>
     </row>
     <row r="8">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>395.6433267613615</v>
+        <v>512.0831513395783</v>
       </c>
       <c r="AB8" t="n">
-        <v>541.336654226592</v>
+        <v>700.6547591770199</v>
       </c>
       <c r="AC8" t="n">
-        <v>489.6722437179713</v>
+        <v>633.7852523362951</v>
       </c>
       <c r="AD8" t="n">
-        <v>395643.3267613616</v>
+        <v>512083.1513395783</v>
       </c>
       <c r="AE8" t="n">
-        <v>541336.654226592</v>
+        <v>700654.7591770198</v>
       </c>
       <c r="AF8" t="n">
         <v>6.908699129346959e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.25925925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>489672.2437179713</v>
+        <v>633785.2523362951</v>
       </c>
     </row>
     <row r="9">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>390.6482067381422</v>
+        <v>507.0880313163589</v>
       </c>
       <c r="AB9" t="n">
-        <v>534.5021106416808</v>
+        <v>693.8202155921086</v>
       </c>
       <c r="AC9" t="n">
-        <v>483.4899793804618</v>
+        <v>627.6029879987856</v>
       </c>
       <c r="AD9" t="n">
-        <v>390648.2067381422</v>
+        <v>507088.0313163589</v>
       </c>
       <c r="AE9" t="n">
-        <v>534502.1106416808</v>
+        <v>693820.2155921087</v>
       </c>
       <c r="AF9" t="n">
         <v>6.971105327208144e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.03935185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>483489.9793804618</v>
+        <v>627602.9879987856</v>
       </c>
     </row>
     <row r="10">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>391.4718749821162</v>
+        <v>507.9116995603329</v>
       </c>
       <c r="AB10" t="n">
-        <v>535.6290898707643</v>
+        <v>694.9471948211922</v>
       </c>
       <c r="AC10" t="n">
-        <v>484.5094012936468</v>
+        <v>628.6224099119706</v>
       </c>
       <c r="AD10" t="n">
-        <v>391471.8749821162</v>
+        <v>507911.6995603329</v>
       </c>
       <c r="AE10" t="n">
-        <v>535629.0898707643</v>
+        <v>694947.1948211922</v>
       </c>
       <c r="AF10" t="n">
         <v>6.9683542419196e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.05092592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>484509.4012936468</v>
+        <v>628622.4099119706</v>
       </c>
     </row>
   </sheetData>
@@ -8470,28 +8470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>327.5505874196031</v>
+        <v>446.9128409137883</v>
       </c>
       <c r="AB2" t="n">
-        <v>448.169164219553</v>
+        <v>611.4858653412733</v>
       </c>
       <c r="AC2" t="n">
-        <v>405.3965281958106</v>
+        <v>553.1265125789037</v>
       </c>
       <c r="AD2" t="n">
-        <v>327550.5874196031</v>
+        <v>446912.8409137884</v>
       </c>
       <c r="AE2" t="n">
-        <v>448169.1642195529</v>
+        <v>611485.8653412734</v>
       </c>
       <c r="AF2" t="n">
         <v>1.181138027529071e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.42824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>405396.5281958106</v>
+        <v>553126.5125789037</v>
       </c>
     </row>
     <row r="3">
@@ -8576,28 +8576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>328.1550353125364</v>
+        <v>447.5172888067216</v>
       </c>
       <c r="AB3" t="n">
-        <v>448.9961964930233</v>
+        <v>612.3128976147436</v>
       </c>
       <c r="AC3" t="n">
-        <v>406.144629669848</v>
+        <v>553.8746140529411</v>
       </c>
       <c r="AD3" t="n">
-        <v>328155.0353125364</v>
+        <v>447517.2888067216</v>
       </c>
       <c r="AE3" t="n">
-        <v>448996.1964930233</v>
+        <v>612312.8976147437</v>
       </c>
       <c r="AF3" t="n">
         <v>1.182721287679801e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.39351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>406144.629669848</v>
+        <v>553874.6140529411</v>
       </c>
     </row>
   </sheetData>
@@ -8873,28 +8873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>592.3534753993465</v>
+        <v>764.8771326664599</v>
       </c>
       <c r="AB2" t="n">
-        <v>810.4841578323616</v>
+        <v>1046.538636911813</v>
       </c>
       <c r="AC2" t="n">
-        <v>733.1326873304999</v>
+        <v>946.6584582311505</v>
       </c>
       <c r="AD2" t="n">
-        <v>592353.4753993466</v>
+        <v>764877.1326664599</v>
       </c>
       <c r="AE2" t="n">
-        <v>810484.1578323615</v>
+        <v>1046538.636911812</v>
       </c>
       <c r="AF2" t="n">
         <v>5.501570923691738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.94675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>733132.6873305</v>
+        <v>946658.4582311504</v>
       </c>
     </row>
     <row r="3">
@@ -8979,28 +8979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.146071623508</v>
+        <v>583.2827993673254</v>
       </c>
       <c r="AB3" t="n">
-        <v>614.5414701214971</v>
+        <v>798.0732587153663</v>
       </c>
       <c r="AC3" t="n">
-        <v>555.8904947274712</v>
+        <v>721.9062670064245</v>
       </c>
       <c r="AD3" t="n">
-        <v>449146.071623508</v>
+        <v>583282.7993673254</v>
       </c>
       <c r="AE3" t="n">
-        <v>614541.4701214972</v>
+        <v>798073.2587153662</v>
       </c>
       <c r="AF3" t="n">
         <v>6.849414658010069e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.26851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>555890.4947274711</v>
+        <v>721906.2670064245</v>
       </c>
     </row>
     <row r="4">
@@ -9085,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>405.7483684849972</v>
+        <v>530.2966524452216</v>
       </c>
       <c r="AB4" t="n">
-        <v>555.1628181158482</v>
+        <v>725.57527491272</v>
       </c>
       <c r="AC4" t="n">
-        <v>502.1788579307797</v>
+        <v>656.3273890263436</v>
       </c>
       <c r="AD4" t="n">
-        <v>405748.3684849972</v>
+        <v>530296.6524452217</v>
       </c>
       <c r="AE4" t="n">
-        <v>555162.8181158481</v>
+        <v>725575.2749127201</v>
       </c>
       <c r="AF4" t="n">
         <v>7.346667996431076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>502178.8579307797</v>
+        <v>656327.3890263436</v>
       </c>
     </row>
     <row r="5">
@@ -9191,28 +9191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>382.4608827055509</v>
+        <v>507.0764864734797</v>
       </c>
       <c r="AB5" t="n">
-        <v>523.2998527010453</v>
+        <v>693.8044194287588</v>
       </c>
       <c r="AC5" t="n">
-        <v>473.3568492152128</v>
+        <v>627.5886993990958</v>
       </c>
       <c r="AD5" t="n">
-        <v>382460.8827055509</v>
+        <v>507076.4864734798</v>
       </c>
       <c r="AE5" t="n">
-        <v>523299.8527010453</v>
+        <v>693804.4194287588</v>
       </c>
       <c r="AF5" t="n">
         <v>7.603200380626211e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.56018518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>473356.8492152129</v>
+        <v>627588.6993990958</v>
       </c>
     </row>
     <row r="6">
@@ -9297,28 +9297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>372.1237647874945</v>
+        <v>487.1177703829065</v>
       </c>
       <c r="AB6" t="n">
-        <v>509.1561519241037</v>
+        <v>666.4960235572264</v>
       </c>
       <c r="AC6" t="n">
-        <v>460.5630033896138</v>
+        <v>602.8865785019682</v>
       </c>
       <c r="AD6" t="n">
-        <v>372123.7647874944</v>
+        <v>487117.7703829065</v>
       </c>
       <c r="AE6" t="n">
-        <v>509156.1519241037</v>
+        <v>666496.0235572264</v>
       </c>
       <c r="AF6" t="n">
         <v>7.753731647578448e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.08564814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>460563.0033896138</v>
+        <v>602886.5785019682</v>
       </c>
     </row>
     <row r="7">
@@ -9403,28 +9403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>371.497558050281</v>
+        <v>486.4915636456931</v>
       </c>
       <c r="AB7" t="n">
-        <v>508.2993482399568</v>
+        <v>665.6392198730796</v>
       </c>
       <c r="AC7" t="n">
-        <v>459.7879718465504</v>
+        <v>602.1115469589047</v>
       </c>
       <c r="AD7" t="n">
-        <v>371497.558050281</v>
+        <v>486491.5636456931</v>
       </c>
       <c r="AE7" t="n">
-        <v>508299.3482399568</v>
+        <v>665639.2198730796</v>
       </c>
       <c r="AF7" t="n">
         <v>7.769704418669843e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.03935185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>459787.9718465504</v>
+        <v>602111.5469589047</v>
       </c>
     </row>
   </sheetData>
@@ -9700,28 +9700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>670.5825389848508</v>
+        <v>844.2348469788853</v>
       </c>
       <c r="AB2" t="n">
-        <v>917.5206138527586</v>
+        <v>1155.119362649339</v>
       </c>
       <c r="AC2" t="n">
-        <v>829.95373421492</v>
+        <v>1044.876391898293</v>
       </c>
       <c r="AD2" t="n">
-        <v>670582.5389848507</v>
+        <v>844234.8469788854</v>
       </c>
       <c r="AE2" t="n">
-        <v>917520.6138527587</v>
+        <v>1155119.362649339</v>
       </c>
       <c r="AF2" t="n">
         <v>4.879277832280909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.12268518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>829953.73421492</v>
+        <v>1044876.391898293</v>
       </c>
     </row>
     <row r="3">
@@ -9806,28 +9806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>484.1333531838018</v>
+        <v>619.1812994441167</v>
       </c>
       <c r="AB3" t="n">
-        <v>662.4126122822167</v>
+        <v>847.1911702504813</v>
       </c>
       <c r="AC3" t="n">
-        <v>599.1928822679416</v>
+        <v>766.3364340020499</v>
       </c>
       <c r="AD3" t="n">
-        <v>484133.3531838018</v>
+        <v>619181.2994441167</v>
       </c>
       <c r="AE3" t="n">
-        <v>662412.6122822168</v>
+        <v>847191.1702504812</v>
       </c>
       <c r="AF3" t="n">
         <v>6.257214279313515e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.17129629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>599192.8822679416</v>
+        <v>766336.43400205</v>
       </c>
     </row>
     <row r="4">
@@ -9912,28 +9912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>437.0918625310101</v>
+        <v>562.488718357895</v>
       </c>
       <c r="AB4" t="n">
-        <v>598.0483694469686</v>
+        <v>769.6218797081542</v>
       </c>
       <c r="AC4" t="n">
-        <v>540.9714724331075</v>
+        <v>696.1702476798995</v>
       </c>
       <c r="AD4" t="n">
-        <v>437091.8625310101</v>
+        <v>562488.718357895</v>
       </c>
       <c r="AE4" t="n">
-        <v>598048.3694469687</v>
+        <v>769621.8797081542</v>
       </c>
       <c r="AF4" t="n">
         <v>6.761452517169944e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.06481481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>540971.4724331074</v>
+        <v>696170.2476798994</v>
       </c>
     </row>
     <row r="5">
@@ -10018,28 +10018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>412.4730650644473</v>
+        <v>537.8357554725515</v>
       </c>
       <c r="AB5" t="n">
-        <v>564.3638446485268</v>
+        <v>735.8906082764644</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.5017514049013</v>
+        <v>665.6582414515135</v>
       </c>
       <c r="AD5" t="n">
-        <v>412473.0650644473</v>
+        <v>537835.7554725514</v>
       </c>
       <c r="AE5" t="n">
-        <v>564363.8446485267</v>
+        <v>735890.6082764644</v>
       </c>
       <c r="AF5" t="n">
         <v>7.027354046405015e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.08101851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>510501.7514049013</v>
+        <v>665658.2414515135</v>
       </c>
     </row>
     <row r="6">
@@ -10124,28 +10124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>389.7301325991444</v>
+        <v>505.4758979925994</v>
       </c>
       <c r="AB6" t="n">
-        <v>533.2459611021316</v>
+        <v>691.614423656238</v>
       </c>
       <c r="AC6" t="n">
-        <v>482.3537149899502</v>
+        <v>625.607713749426</v>
       </c>
       <c r="AD6" t="n">
-        <v>389730.1325991444</v>
+        <v>505475.8979925993</v>
       </c>
       <c r="AE6" t="n">
-        <v>533245.9611021315</v>
+        <v>691614.423656238</v>
       </c>
       <c r="AF6" t="n">
         <v>7.25076615602005e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.30555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>482353.7149899502</v>
+        <v>625607.7137494261</v>
       </c>
     </row>
     <row r="7">
@@ -10230,28 +10230,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>383.6867042828757</v>
+        <v>499.4324696763306</v>
       </c>
       <c r="AB7" t="n">
-        <v>524.9770758625723</v>
+        <v>683.3455384166787</v>
       </c>
       <c r="AC7" t="n">
-        <v>474.8740005522011</v>
+        <v>618.1279993116769</v>
       </c>
       <c r="AD7" t="n">
-        <v>383686.7042828756</v>
+        <v>499432.4696763306</v>
       </c>
       <c r="AE7" t="n">
-        <v>524977.0758625723</v>
+        <v>683345.5384166787</v>
       </c>
       <c r="AF7" t="n">
         <v>7.302393085235794e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.14351851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>474874.0005522011</v>
+        <v>618127.9993116769</v>
       </c>
     </row>
     <row r="8">
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>381.0029192014783</v>
+        <v>496.7486845949333</v>
       </c>
       <c r="AB8" t="n">
-        <v>521.3050027139629</v>
+        <v>679.6734652680693</v>
       </c>
       <c r="AC8" t="n">
-        <v>471.552384911108</v>
+        <v>614.8063836705838</v>
       </c>
       <c r="AD8" t="n">
-        <v>381002.9192014784</v>
+        <v>496748.6845949333</v>
       </c>
       <c r="AE8" t="n">
-        <v>521305.0027139629</v>
+        <v>679673.4652680693</v>
       </c>
       <c r="AF8" t="n">
         <v>7.34366417024307e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.00462962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>471552.3849111081</v>
+        <v>614806.3836705838</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>838.5994606797011</v>
+        <v>1043.517509965411</v>
       </c>
       <c r="AB2" t="n">
-        <v>1147.408778499098</v>
+        <v>1427.786693878105</v>
       </c>
       <c r="AC2" t="n">
-        <v>1037.901695077479</v>
+        <v>1291.520735725589</v>
       </c>
       <c r="AD2" t="n">
-        <v>838599.4606797011</v>
+        <v>1043517.509965411</v>
       </c>
       <c r="AE2" t="n">
-        <v>1147408.778499098</v>
+        <v>1427786.693878105</v>
       </c>
       <c r="AF2" t="n">
         <v>3.885910838493849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.23842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>1037901.695077479</v>
+        <v>1291520.735725589</v>
       </c>
     </row>
     <row r="3">
@@ -10739,28 +10739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>558.2248945487772</v>
+        <v>704.6000993926407</v>
       </c>
       <c r="AB3" t="n">
-        <v>763.7879278658887</v>
+        <v>964.0649407515446</v>
       </c>
       <c r="AC3" t="n">
-        <v>690.8930800134569</v>
+        <v>872.0559358798587</v>
       </c>
       <c r="AD3" t="n">
-        <v>558224.8945487773</v>
+        <v>704600.0993926406</v>
       </c>
       <c r="AE3" t="n">
-        <v>763787.9278658887</v>
+        <v>964064.9407515445</v>
       </c>
       <c r="AF3" t="n">
         <v>5.305073331115618e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.20833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>690893.080013457</v>
+        <v>872055.9358798587</v>
       </c>
     </row>
     <row r="4">
@@ -10845,28 +10845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.8805527844704</v>
+        <v>626.4587572327819</v>
       </c>
       <c r="AB4" t="n">
-        <v>670.2761843244033</v>
+        <v>857.1485090557114</v>
       </c>
       <c r="AC4" t="n">
-        <v>606.3059660310147</v>
+        <v>775.3434583669217</v>
       </c>
       <c r="AD4" t="n">
-        <v>489880.5527844704</v>
+        <v>626458.7572327818</v>
       </c>
       <c r="AE4" t="n">
-        <v>670276.1843244033</v>
+        <v>857148.5090557114</v>
       </c>
       <c r="AF4" t="n">
         <v>5.84444091196182e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.41898148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>606305.9660310147</v>
+        <v>775343.4583669218</v>
       </c>
     </row>
     <row r="5">
@@ -10951,28 +10951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>461.1307774506583</v>
+        <v>587.9803123409794</v>
       </c>
       <c r="AB5" t="n">
-        <v>630.9394733621097</v>
+        <v>804.5006032055659</v>
       </c>
       <c r="AC5" t="n">
-        <v>570.7234955535417</v>
+        <v>727.7201947593139</v>
       </c>
       <c r="AD5" t="n">
-        <v>461130.7774506583</v>
+        <v>587980.3123409793</v>
       </c>
       <c r="AE5" t="n">
-        <v>630939.4733621096</v>
+        <v>804500.6032055658</v>
       </c>
       <c r="AF5" t="n">
         <v>6.137521294059205e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>570723.4955535417</v>
+        <v>727720.1947593139</v>
       </c>
     </row>
     <row r="6">
@@ -11057,28 +11057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>440.1080880605349</v>
+        <v>566.9234575320752</v>
       </c>
       <c r="AB6" t="n">
-        <v>602.1753022829433</v>
+        <v>775.6896854931518</v>
       </c>
       <c r="AC6" t="n">
-        <v>544.7045365914034</v>
+        <v>701.6589505969959</v>
       </c>
       <c r="AD6" t="n">
-        <v>440108.0880605349</v>
+        <v>566923.4575320752</v>
       </c>
       <c r="AE6" t="n">
-        <v>602175.3022829434</v>
+        <v>775689.6854931519</v>
       </c>
       <c r="AF6" t="n">
         <v>6.30434314593797e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>544704.5365914034</v>
+        <v>701658.9505969959</v>
       </c>
     </row>
     <row r="7">
@@ -11163,28 +11163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>418.8739472152769</v>
+        <v>545.7566364945217</v>
       </c>
       <c r="AB7" t="n">
-        <v>573.1218139942824</v>
+        <v>746.7283071353321</v>
       </c>
       <c r="AC7" t="n">
-        <v>518.4238724481852</v>
+        <v>675.4616055420967</v>
       </c>
       <c r="AD7" t="n">
-        <v>418873.9472152769</v>
+        <v>545756.6364945216</v>
       </c>
       <c r="AE7" t="n">
-        <v>573121.8139942824</v>
+        <v>746728.3071353321</v>
       </c>
       <c r="AF7" t="n">
         <v>6.471303439187591e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.75694444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>518423.8724481852</v>
+        <v>675461.6055420967</v>
       </c>
     </row>
     <row r="8">
@@ -11269,28 +11269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>414.3818448072871</v>
+        <v>541.2645340865317</v>
       </c>
       <c r="AB8" t="n">
-        <v>566.9755213020991</v>
+        <v>740.5820144431488</v>
       </c>
       <c r="AC8" t="n">
-        <v>512.8641733041678</v>
+        <v>669.9019063980794</v>
       </c>
       <c r="AD8" t="n">
-        <v>414381.844807287</v>
+        <v>541264.5340865317</v>
       </c>
       <c r="AE8" t="n">
-        <v>566975.5213020991</v>
+        <v>740582.0144431487</v>
       </c>
       <c r="AF8" t="n">
         <v>6.515466236489936e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.59490740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>512864.1733041679</v>
+        <v>669901.9063980794</v>
       </c>
     </row>
     <row r="9">
@@ -11375,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>408.1063243103705</v>
+        <v>525.1930242239205</v>
       </c>
       <c r="AB9" t="n">
-        <v>558.389077301793</v>
+        <v>718.5922656241493</v>
       </c>
       <c r="AC9" t="n">
-        <v>505.0972074681012</v>
+        <v>650.010828343559</v>
       </c>
       <c r="AD9" t="n">
-        <v>408106.3243103705</v>
+        <v>525193.0242239204</v>
       </c>
       <c r="AE9" t="n">
-        <v>558389.077301793</v>
+        <v>718592.2656241492</v>
       </c>
       <c r="AF9" t="n">
         <v>6.577487970632415e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.36342592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>505097.2074681012</v>
+        <v>650010.8283435589</v>
       </c>
     </row>
     <row r="10">
@@ -11481,28 +11481,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>401.7145919897505</v>
+        <v>518.8012919033004</v>
       </c>
       <c r="AB10" t="n">
-        <v>549.6436271573922</v>
+        <v>709.8468154797484</v>
       </c>
       <c r="AC10" t="n">
-        <v>497.1864108111656</v>
+        <v>642.1000316866233</v>
       </c>
       <c r="AD10" t="n">
-        <v>401714.5919897505</v>
+        <v>518801.2919033004</v>
       </c>
       <c r="AE10" t="n">
-        <v>549643.6271573922</v>
+        <v>709846.8154797484</v>
       </c>
       <c r="AF10" t="n">
         <v>6.641309442595993e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.13194444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>497186.4108111656</v>
+        <v>642100.0316866233</v>
       </c>
     </row>
     <row r="11">
@@ -11587,28 +11587,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>399.8073916651896</v>
+        <v>516.8940915787396</v>
       </c>
       <c r="AB11" t="n">
-        <v>547.034111533588</v>
+        <v>707.2372998559442</v>
       </c>
       <c r="AC11" t="n">
-        <v>494.8259436960191</v>
+        <v>639.7395645714768</v>
       </c>
       <c r="AD11" t="n">
-        <v>399807.3916651896</v>
+        <v>516894.0915787396</v>
       </c>
       <c r="AE11" t="n">
-        <v>547034.111533588</v>
+        <v>707237.2998559442</v>
       </c>
       <c r="AF11" t="n">
         <v>6.657230200244174e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.07407407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>494825.9436960191</v>
+        <v>639739.5645714768</v>
       </c>
     </row>
   </sheetData>
@@ -11884,28 +11884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>527.4103027077009</v>
+        <v>689.1775856866424</v>
       </c>
       <c r="AB2" t="n">
-        <v>721.6260438650806</v>
+        <v>942.9631771057127</v>
       </c>
       <c r="AC2" t="n">
-        <v>652.7550670471104</v>
+        <v>852.9680949398738</v>
       </c>
       <c r="AD2" t="n">
-        <v>527410.3027077009</v>
+        <v>689177.5856866423</v>
       </c>
       <c r="AE2" t="n">
-        <v>721626.0438650807</v>
+        <v>942963.1771057127</v>
       </c>
       <c r="AF2" t="n">
         <v>6.272352618917833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.85185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>652755.0670471104</v>
+        <v>852968.0949398738</v>
       </c>
     </row>
     <row r="3">
@@ -11990,28 +11990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>413.3141513453027</v>
+        <v>537.0034773972772</v>
       </c>
       <c r="AB3" t="n">
-        <v>565.5146560041009</v>
+        <v>734.7518486963569</v>
       </c>
       <c r="AC3" t="n">
-        <v>511.5427309398733</v>
+        <v>664.6281634874721</v>
       </c>
       <c r="AD3" t="n">
-        <v>413314.1513453027</v>
+        <v>537003.4773972771</v>
       </c>
       <c r="AE3" t="n">
-        <v>565514.6560041008</v>
+        <v>734751.8486963569</v>
       </c>
       <c r="AF3" t="n">
         <v>7.593683594633511e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.30787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>511542.7309398733</v>
+        <v>664628.1634874721</v>
       </c>
     </row>
     <row r="4">
@@ -12096,28 +12096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>373.6881499525365</v>
+        <v>497.4106303934345</v>
       </c>
       <c r="AB4" t="n">
-        <v>511.2966127227169</v>
+        <v>680.5791687125666</v>
       </c>
       <c r="AC4" t="n">
-        <v>462.499181613763</v>
+        <v>615.6256480495009</v>
       </c>
       <c r="AD4" t="n">
-        <v>373688.1499525366</v>
+        <v>497410.6303934345</v>
       </c>
       <c r="AE4" t="n">
-        <v>511296.6127227169</v>
+        <v>680579.1687125666</v>
       </c>
       <c r="AF4" t="n">
         <v>8.067091492542095e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.75694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>462499.181613763</v>
+        <v>615625.6480495009</v>
       </c>
     </row>
     <row r="5">
@@ -12202,28 +12202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.9241009188975</v>
+        <v>473.6124159410148</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.7815924390407</v>
+        <v>648.0174017956424</v>
       </c>
       <c r="AC5" t="n">
-        <v>433.0873492308432</v>
+        <v>586.1715304664012</v>
       </c>
       <c r="AD5" t="n">
-        <v>349924.1009188975</v>
+        <v>473612.4159410148</v>
       </c>
       <c r="AE5" t="n">
-        <v>478781.5924390407</v>
+        <v>648017.4017956425</v>
       </c>
       <c r="AF5" t="n">
         <v>8.345993119600158e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.93518518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>433087.3492308432</v>
+        <v>586171.5304664013</v>
       </c>
     </row>
     <row r="6">
@@ -12308,28 +12308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>361.7212280046947</v>
+        <v>475.8908120674631</v>
       </c>
       <c r="AB6" t="n">
-        <v>494.9229421703437</v>
+        <v>651.1348038915921</v>
       </c>
       <c r="AC6" t="n">
-        <v>447.6881911983173</v>
+        <v>588.9914120816146</v>
       </c>
       <c r="AD6" t="n">
-        <v>361721.2280046947</v>
+        <v>475890.8120674631</v>
       </c>
       <c r="AE6" t="n">
-        <v>494922.9421703437</v>
+        <v>651134.8038915921</v>
       </c>
       <c r="AF6" t="n">
         <v>8.276095125195135e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.13194444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>447688.1911983173</v>
+        <v>588991.4120816146</v>
       </c>
     </row>
   </sheetData>
@@ -12605,28 +12605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.2306682017896</v>
+        <v>577.210503312711</v>
       </c>
       <c r="AB2" t="n">
-        <v>596.8700453725168</v>
+        <v>789.7648753626477</v>
       </c>
       <c r="AC2" t="n">
-        <v>539.9056059545331</v>
+        <v>714.3908241</v>
       </c>
       <c r="AD2" t="n">
-        <v>436230.6682017896</v>
+        <v>577210.503312711</v>
       </c>
       <c r="AE2" t="n">
-        <v>596870.0453725167</v>
+        <v>789764.8753626477</v>
       </c>
       <c r="AF2" t="n">
         <v>7.8497634018409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.93518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>539905.6059545331</v>
+        <v>714390.8241000001</v>
       </c>
     </row>
     <row r="3">
@@ -12711,19 +12711,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.9781424934876</v>
+        <v>477.1561108671154</v>
       </c>
       <c r="AB3" t="n">
-        <v>485.6967550899728</v>
+        <v>652.8660415303199</v>
       </c>
       <c r="AC3" t="n">
-        <v>439.3425384638621</v>
+        <v>590.5574228299096</v>
       </c>
       <c r="AD3" t="n">
-        <v>354978.1424934876</v>
+        <v>477156.1108671154</v>
       </c>
       <c r="AE3" t="n">
-        <v>485696.7550899729</v>
+        <v>652866.0415303198</v>
       </c>
       <c r="AF3" t="n">
         <v>9.08668986988598e-06</v>
@@ -12732,7 +12732,7 @@
         <v>25</v>
       </c>
       <c r="AH3" t="n">
-        <v>439342.5384638621</v>
+        <v>590557.4228299096</v>
       </c>
     </row>
     <row r="4">
@@ -12817,28 +12817,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>344.32094319508</v>
+        <v>457.0648238111373</v>
       </c>
       <c r="AB4" t="n">
-        <v>471.1151048474408</v>
+        <v>625.3762562153023</v>
       </c>
       <c r="AC4" t="n">
-        <v>426.1525404550027</v>
+        <v>565.6912240432011</v>
       </c>
       <c r="AD4" t="n">
-        <v>344320.94319508</v>
+        <v>457064.8238111374</v>
       </c>
       <c r="AE4" t="n">
-        <v>471115.1048474408</v>
+        <v>625376.2562153023</v>
       </c>
       <c r="AF4" t="n">
         <v>9.359861636270044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>426152.5404550027</v>
+        <v>565691.2240432012</v>
       </c>
     </row>
   </sheetData>
@@ -23039,28 +23039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>386.7011805181696</v>
+        <v>516.8832391388166</v>
       </c>
       <c r="AB2" t="n">
-        <v>529.101615237007</v>
+        <v>707.2224510688658</v>
       </c>
       <c r="AC2" t="n">
-        <v>478.6048996775672</v>
+        <v>639.7261329317968</v>
       </c>
       <c r="AD2" t="n">
-        <v>386701.1805181695</v>
+        <v>516883.2391388166</v>
       </c>
       <c r="AE2" t="n">
-        <v>529101.6152370069</v>
+        <v>707222.4510688658</v>
       </c>
       <c r="AF2" t="n">
         <v>9.415082053000527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.09490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>478604.8996775672</v>
+        <v>639726.1329317967</v>
       </c>
     </row>
     <row r="3">
@@ -23145,28 +23145,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>332.0856349901628</v>
+        <v>453.029046000862</v>
       </c>
       <c r="AB3" t="n">
-        <v>454.3742163777712</v>
+        <v>619.8543269693323</v>
       </c>
       <c r="AC3" t="n">
-        <v>411.0093788848939</v>
+        <v>560.6962999743904</v>
       </c>
       <c r="AD3" t="n">
-        <v>332085.6349901628</v>
+        <v>453029.046000862</v>
       </c>
       <c r="AE3" t="n">
-        <v>454374.2163777712</v>
+        <v>619854.3269693323</v>
       </c>
       <c r="AF3" t="n">
         <v>1.036694861168286e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.60648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>411009.3788848938</v>
+        <v>560696.2999743904</v>
       </c>
     </row>
   </sheetData>
@@ -23442,28 +23442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.5229447044921</v>
+        <v>446.9859257752441</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.4995863541141</v>
+        <v>611.5858632729936</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.5999767091084</v>
+        <v>553.2169668483685</v>
       </c>
       <c r="AD2" t="n">
-        <v>328522.9447044922</v>
+        <v>446985.9257752441</v>
       </c>
       <c r="AE2" t="n">
-        <v>449499.5863541141</v>
+        <v>611585.8632729936</v>
       </c>
       <c r="AF2" t="n">
         <v>1.282687200345466e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.29629629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>406599.9767091084</v>
+        <v>553216.9668483685</v>
       </c>
     </row>
   </sheetData>
@@ -23739,28 +23739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>635.9893930993823</v>
+        <v>809.0557413328065</v>
       </c>
       <c r="AB2" t="n">
-        <v>870.188745510374</v>
+        <v>1106.985758311767</v>
       </c>
       <c r="AC2" t="n">
-        <v>787.139152956438</v>
+        <v>1001.336591202761</v>
       </c>
       <c r="AD2" t="n">
-        <v>635989.3930993823</v>
+        <v>809055.7413328065</v>
       </c>
       <c r="AE2" t="n">
-        <v>870188.745510374</v>
+        <v>1106985.758311767</v>
       </c>
       <c r="AF2" t="n">
         <v>5.174501982380878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.02314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>787139.152956438</v>
+        <v>1001336.591202761</v>
       </c>
     </row>
     <row r="3">
@@ -23845,28 +23845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.6979759157431</v>
+        <v>596.3840686067839</v>
       </c>
       <c r="AB3" t="n">
-        <v>631.7155393250689</v>
+        <v>815.9989932759997</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.4254948702117</v>
+        <v>738.1211946195177</v>
       </c>
       <c r="AD3" t="n">
-        <v>461697.9759157432</v>
+        <v>596384.0686067839</v>
       </c>
       <c r="AE3" t="n">
-        <v>631715.5393250689</v>
+        <v>815998.9932759998</v>
       </c>
       <c r="AF3" t="n">
         <v>6.539336580003263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.71990740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>571425.4948702117</v>
+        <v>738121.1946195178</v>
       </c>
     </row>
     <row r="4">
@@ -23951,28 +23951,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>416.8182555194469</v>
+        <v>551.436017372926</v>
       </c>
       <c r="AB4" t="n">
-        <v>570.3091259253307</v>
+        <v>754.4990866097659</v>
       </c>
       <c r="AC4" t="n">
-        <v>515.8796233809018</v>
+        <v>682.4907527298481</v>
       </c>
       <c r="AD4" t="n">
-        <v>416818.2555194469</v>
+        <v>551436.017372926</v>
       </c>
       <c r="AE4" t="n">
-        <v>570309.1259253307</v>
+        <v>754499.0866097659</v>
       </c>
       <c r="AF4" t="n">
         <v>7.034629355620473e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.76388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>515879.6233809018</v>
+        <v>682490.752729848</v>
       </c>
     </row>
     <row r="5">
@@ -24057,28 +24057,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>392.7490554320995</v>
+        <v>517.7805475121421</v>
       </c>
       <c r="AB5" t="n">
-        <v>537.3765845076563</v>
+        <v>708.4501879717013</v>
       </c>
       <c r="AC5" t="n">
-        <v>486.090117495018</v>
+        <v>640.8366963477652</v>
       </c>
       <c r="AD5" t="n">
-        <v>392749.0554320994</v>
+        <v>517780.5475121421</v>
       </c>
       <c r="AE5" t="n">
-        <v>537376.5845076563</v>
+        <v>708450.1879717014</v>
       </c>
       <c r="AF5" t="n">
         <v>7.302084322662584e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.81481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>486090.117495018</v>
+        <v>640836.6963477652</v>
       </c>
     </row>
     <row r="6">
@@ -24163,28 +24163,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>383.1944549162797</v>
+        <v>498.5723574151814</v>
       </c>
       <c r="AB6" t="n">
-        <v>524.3035585626862</v>
+        <v>682.1686948754996</v>
       </c>
       <c r="AC6" t="n">
-        <v>474.2647627981286</v>
+        <v>617.0634720663577</v>
       </c>
       <c r="AD6" t="n">
-        <v>383194.4549162796</v>
+        <v>498572.3574151815</v>
       </c>
       <c r="AE6" t="n">
-        <v>524303.5585626862</v>
+        <v>682168.6948754996</v>
       </c>
       <c r="AF6" t="n">
         <v>7.447086254443025e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.34027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>474264.7627981286</v>
+        <v>617063.4720663577</v>
       </c>
     </row>
     <row r="7">
@@ -24269,28 +24269,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>376.310730126368</v>
+        <v>491.6886326252699</v>
       </c>
       <c r="AB7" t="n">
-        <v>514.8849426166246</v>
+        <v>672.7500789294381</v>
       </c>
       <c r="AC7" t="n">
-        <v>465.7450463388488</v>
+        <v>608.5437556070779</v>
       </c>
       <c r="AD7" t="n">
-        <v>376310.730126368</v>
+        <v>491688.6326252699</v>
       </c>
       <c r="AE7" t="n">
-        <v>514884.9426166246</v>
+        <v>672750.0789294381</v>
       </c>
       <c r="AF7" t="n">
         <v>7.528043056527785e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.07407407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>465745.0463388488</v>
+        <v>608543.7556070779</v>
       </c>
     </row>
     <row r="8">
@@ -24375,28 +24375,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>376.2714531913775</v>
+        <v>491.6493556902793</v>
       </c>
       <c r="AB8" t="n">
-        <v>514.8312021813945</v>
+        <v>672.6963384942079</v>
       </c>
       <c r="AC8" t="n">
-        <v>465.6964348153318</v>
+        <v>608.4951440835609</v>
       </c>
       <c r="AD8" t="n">
-        <v>376271.4531913775</v>
+        <v>491649.3556902793</v>
       </c>
       <c r="AE8" t="n">
-        <v>514831.2021813944</v>
+        <v>672696.3384942079</v>
       </c>
       <c r="AF8" t="n">
         <v>7.549965594809927e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.00462962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>465696.4348153318</v>
+        <v>608495.1440835609</v>
       </c>
     </row>
   </sheetData>
@@ -24672,28 +24672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>786.517804443103</v>
+        <v>990.9123782576999</v>
       </c>
       <c r="AB2" t="n">
-        <v>1076.148358755674</v>
+        <v>1355.810031900996</v>
       </c>
       <c r="AC2" t="n">
-        <v>973.4422697797389</v>
+        <v>1226.413425347695</v>
       </c>
       <c r="AD2" t="n">
-        <v>786517.804443103</v>
+        <v>990912.3782576999</v>
       </c>
       <c r="AE2" t="n">
-        <v>1076148.358755674</v>
+        <v>1355810.031900996</v>
       </c>
       <c r="AF2" t="n">
         <v>4.106574592211402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.88425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>973442.269779739</v>
+        <v>1226413.425347695</v>
       </c>
     </row>
     <row r="3">
@@ -24778,28 +24778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>535.2139107632333</v>
+        <v>690.9268406130304</v>
       </c>
       <c r="AB3" t="n">
-        <v>732.3032846775503</v>
+        <v>945.3565848676776</v>
       </c>
       <c r="AC3" t="n">
-        <v>662.4132869820395</v>
+        <v>855.133079224206</v>
       </c>
       <c r="AD3" t="n">
-        <v>535213.9107632333</v>
+        <v>690926.8406130305</v>
       </c>
       <c r="AE3" t="n">
-        <v>732303.2846775503</v>
+        <v>945356.5848676777</v>
       </c>
       <c r="AF3" t="n">
         <v>5.50665575507988e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.7337962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>662413.2869820395</v>
+        <v>855133.0792242059</v>
       </c>
     </row>
     <row r="4">
@@ -24884,28 +24884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>479.4841061890304</v>
+        <v>615.6912240639841</v>
       </c>
       <c r="AB4" t="n">
-        <v>656.0513074336691</v>
+        <v>842.415895144125</v>
       </c>
       <c r="AC4" t="n">
-        <v>593.4386914259919</v>
+        <v>762.0169044497036</v>
       </c>
       <c r="AD4" t="n">
-        <v>479484.1061890304</v>
+        <v>615691.2240639841</v>
       </c>
       <c r="AE4" t="n">
-        <v>656051.3074336691</v>
+        <v>842415.895144125</v>
       </c>
       <c r="AF4" t="n">
         <v>6.041360829812573e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.10648148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>593438.6914259919</v>
+        <v>762016.9044497036</v>
       </c>
     </row>
     <row r="5">
@@ -24990,28 +24990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>442.274883386587</v>
+        <v>578.5151556504644</v>
       </c>
       <c r="AB5" t="n">
-        <v>605.1400072403112</v>
+        <v>791.5499582483608</v>
       </c>
       <c r="AC5" t="n">
-        <v>547.3862942686296</v>
+        <v>716.0055411804802</v>
       </c>
       <c r="AD5" t="n">
-        <v>442274.883386587</v>
+        <v>578515.1556504644</v>
       </c>
       <c r="AE5" t="n">
-        <v>605140.0072403112</v>
+        <v>791549.9582483608</v>
       </c>
       <c r="AF5" t="n">
         <v>6.322509012795862e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.90277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>547386.2942686296</v>
+        <v>716005.5411804803</v>
       </c>
     </row>
     <row r="6">
@@ -25096,28 +25096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>430.4410167441174</v>
+        <v>556.9118058261113</v>
       </c>
       <c r="AB6" t="n">
-        <v>588.9483888267341</v>
+        <v>761.9913019461511</v>
       </c>
       <c r="AC6" t="n">
-        <v>532.739981191365</v>
+        <v>689.2679215499188</v>
       </c>
       <c r="AD6" t="n">
-        <v>430441.0167441174</v>
+        <v>556911.8058261112</v>
       </c>
       <c r="AE6" t="n">
-        <v>588948.3888267342</v>
+        <v>761991.3019461511</v>
       </c>
       <c r="AF6" t="n">
         <v>6.511969212601915e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.15046296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>532739.981191365</v>
+        <v>689267.9215499188</v>
       </c>
     </row>
     <row r="7">
@@ -25202,28 +25202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>412.3991734352809</v>
+        <v>538.937282324979</v>
       </c>
       <c r="AB7" t="n">
-        <v>564.2627428616325</v>
+        <v>737.3977659118909</v>
       </c>
       <c r="AC7" t="n">
-        <v>510.4102986306511</v>
+        <v>667.0215580775239</v>
       </c>
       <c r="AD7" t="n">
-        <v>412399.1734352809</v>
+        <v>538937.2823249791</v>
       </c>
       <c r="AE7" t="n">
-        <v>564262.7428616325</v>
+        <v>737397.7659118909</v>
       </c>
       <c r="AF7" t="n">
         <v>6.623607821748275e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>510410.2986306511</v>
+        <v>667021.5580775238</v>
       </c>
     </row>
     <row r="8">
@@ -25308,28 +25308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>405.3257365128784</v>
+        <v>531.7623601760915</v>
       </c>
       <c r="AB8" t="n">
-        <v>554.5845544063884</v>
+        <v>727.5807208925577</v>
       </c>
       <c r="AC8" t="n">
-        <v>501.6557828981527</v>
+        <v>658.1414380565265</v>
       </c>
       <c r="AD8" t="n">
-        <v>405325.7365128784</v>
+        <v>531762.3601760915</v>
       </c>
       <c r="AE8" t="n">
-        <v>554584.5544063884</v>
+        <v>727580.7208925576</v>
       </c>
       <c r="AF8" t="n">
         <v>6.702278375215164e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.43287037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>501655.7828981527</v>
+        <v>658141.4380565265</v>
       </c>
     </row>
     <row r="9">
@@ -25414,28 +25414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>398.1180200305978</v>
+        <v>514.8866457384125</v>
       </c>
       <c r="AB9" t="n">
-        <v>544.7226387333229</v>
+        <v>704.4906238949487</v>
       </c>
       <c r="AC9" t="n">
-        <v>492.7350746156391</v>
+        <v>637.2550275092149</v>
       </c>
       <c r="AD9" t="n">
-        <v>398118.0200305979</v>
+        <v>514886.6457384125</v>
       </c>
       <c r="AE9" t="n">
-        <v>544722.638733323</v>
+        <v>704490.6238949487</v>
       </c>
       <c r="AF9" t="n">
         <v>6.768921955580101e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.18981481481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>492735.0746156391</v>
+        <v>637255.0275092148</v>
       </c>
     </row>
     <row r="10">
@@ -25520,28 +25520,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>395.4085670419743</v>
+        <v>512.1771927497889</v>
       </c>
       <c r="AB10" t="n">
-        <v>541.0154456216586</v>
+        <v>700.7834307832843</v>
       </c>
       <c r="AC10" t="n">
-        <v>489.3816908114735</v>
+        <v>633.9016437050493</v>
       </c>
       <c r="AD10" t="n">
-        <v>395408.5670419743</v>
+        <v>512177.1927497889</v>
       </c>
       <c r="AE10" t="n">
-        <v>541015.4456216586</v>
+        <v>700783.4307832842</v>
       </c>
       <c r="AF10" t="n">
         <v>6.805568850090758e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH10" t="n">
-        <v>489381.6908114735</v>
+        <v>633901.6437050493</v>
       </c>
     </row>
   </sheetData>
@@ -25817,28 +25817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.3212989276283</v>
+        <v>463.669350128244</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.5378827582026</v>
+        <v>634.4128604935049</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.4893550002458</v>
+        <v>573.865387492046</v>
       </c>
       <c r="AD2" t="n">
-        <v>337321.2989276283</v>
+        <v>463669.350128244</v>
       </c>
       <c r="AE2" t="n">
-        <v>461537.8827582026</v>
+        <v>634412.8604935049</v>
       </c>
       <c r="AF2" t="n">
         <v>1.402504170595441e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>417489.3550002459</v>
+        <v>573865.387492046</v>
       </c>
     </row>
   </sheetData>
@@ -26114,28 +26114,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>465.5067716594658</v>
+        <v>616.5281665901367</v>
       </c>
       <c r="AB2" t="n">
-        <v>636.9269016938393</v>
+        <v>843.5610368317051</v>
       </c>
       <c r="AC2" t="n">
-        <v>576.1394921286995</v>
+        <v>763.0527554218376</v>
       </c>
       <c r="AD2" t="n">
-        <v>465506.7716594657</v>
+        <v>616528.1665901367</v>
       </c>
       <c r="AE2" t="n">
-        <v>636926.9016938393</v>
+        <v>843561.0368317051</v>
       </c>
       <c r="AF2" t="n">
         <v>7.258917622044359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.83796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>576139.4921286996</v>
+        <v>763052.7554218376</v>
       </c>
     </row>
     <row r="3">
@@ -26220,28 +26220,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>377.788072241052</v>
+        <v>500.4469892012556</v>
       </c>
       <c r="AB3" t="n">
-        <v>516.9063072736694</v>
+        <v>684.7336487881239</v>
       </c>
       <c r="AC3" t="n">
-        <v>467.5734947900283</v>
+        <v>619.3836303774964</v>
       </c>
       <c r="AD3" t="n">
-        <v>377788.0722410519</v>
+        <v>500446.9892012556</v>
       </c>
       <c r="AE3" t="n">
-        <v>516906.3072736694</v>
+        <v>684733.6487881239</v>
       </c>
       <c r="AF3" t="n">
         <v>8.518360134002866e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.42824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>467573.4947900283</v>
+        <v>619383.6303774964</v>
       </c>
     </row>
     <row r="4">
@@ -26326,28 +26326,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>350.5588462441045</v>
+        <v>463.8088207625744</v>
       </c>
       <c r="AB4" t="n">
-        <v>479.6500789959764</v>
+        <v>634.6036903684059</v>
       </c>
       <c r="AC4" t="n">
-        <v>433.8729486497135</v>
+        <v>574.0380048315178</v>
       </c>
       <c r="AD4" t="n">
-        <v>350558.8462441046</v>
+        <v>463808.8207625744</v>
       </c>
       <c r="AE4" t="n">
-        <v>479650.0789959764</v>
+        <v>634603.6903684059</v>
       </c>
       <c r="AF4" t="n">
         <v>8.954205841335905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.18981481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>433872.9486497135</v>
+        <v>574038.0048315178</v>
       </c>
     </row>
     <row r="5">
@@ -26432,28 +26432,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>350.3570283581667</v>
+        <v>463.6070028766366</v>
       </c>
       <c r="AB5" t="n">
-        <v>479.3739428608594</v>
+        <v>634.327554233289</v>
       </c>
       <c r="AC5" t="n">
-        <v>433.6231665597726</v>
+        <v>573.788222741577</v>
       </c>
       <c r="AD5" t="n">
-        <v>350357.0283581667</v>
+        <v>463607.0028766366</v>
       </c>
       <c r="AE5" t="n">
-        <v>479373.9428608594</v>
+        <v>634327.554233289</v>
       </c>
       <c r="AF5" t="n">
         <v>8.963562769359371e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>433623.1665597726</v>
+        <v>573788.222741577</v>
       </c>
     </row>
   </sheetData>
@@ -26729,28 +26729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>558.8028091281759</v>
+        <v>721.2027588444722</v>
       </c>
       <c r="AB2" t="n">
-        <v>764.5786560892138</v>
+        <v>986.7814318711811</v>
       </c>
       <c r="AC2" t="n">
-        <v>691.6083422449419</v>
+        <v>892.604396969833</v>
       </c>
       <c r="AD2" t="n">
-        <v>558802.809128176</v>
+        <v>721202.7588444722</v>
       </c>
       <c r="AE2" t="n">
-        <v>764578.6560892138</v>
+        <v>986781.4318711811</v>
       </c>
       <c r="AF2" t="n">
         <v>5.873727515182306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.83564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>691608.342244942</v>
+        <v>892604.3969698331</v>
       </c>
     </row>
     <row r="3">
@@ -26835,28 +26835,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>426.7247109259636</v>
+        <v>560.4598167948935</v>
       </c>
       <c r="AB3" t="n">
-        <v>583.8635752544945</v>
+        <v>766.8458470808357</v>
       </c>
       <c r="AC3" t="n">
-        <v>528.1404550898794</v>
+        <v>693.6591557103462</v>
       </c>
       <c r="AD3" t="n">
-        <v>426724.7109259636</v>
+        <v>560459.8167948935</v>
       </c>
       <c r="AE3" t="n">
-        <v>583863.5752544946</v>
+        <v>766845.8470808357</v>
       </c>
       <c r="AF3" t="n">
         <v>7.19347905197041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.80555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>528140.4550898795</v>
+        <v>693659.1557103462</v>
       </c>
     </row>
     <row r="4">
@@ -26941,28 +26941,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>394.4304977907556</v>
+        <v>518.5433359028589</v>
       </c>
       <c r="AB4" t="n">
-        <v>539.6772081227713</v>
+        <v>709.4938686997288</v>
       </c>
       <c r="AC4" t="n">
-        <v>488.1711728212519</v>
+        <v>641.7807696519247</v>
       </c>
       <c r="AD4" t="n">
-        <v>394430.4977907556</v>
+        <v>518543.3359028589</v>
       </c>
       <c r="AE4" t="n">
-        <v>539677.2081227712</v>
+        <v>709493.8686997287</v>
       </c>
       <c r="AF4" t="n">
         <v>7.686719525315459e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.0925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>488171.1728212519</v>
+        <v>641780.7696519247</v>
       </c>
     </row>
     <row r="5">
@@ -27047,28 +27047,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>371.7531981565555</v>
+        <v>486.3452537383174</v>
       </c>
       <c r="AB5" t="n">
-        <v>508.6491263114071</v>
+        <v>665.4390322030704</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.104367589778</v>
+        <v>601.9304649191562</v>
       </c>
       <c r="AD5" t="n">
-        <v>371753.1981565555</v>
+        <v>486345.2537383174</v>
       </c>
       <c r="AE5" t="n">
-        <v>508649.1263114071</v>
+        <v>665439.0322030704</v>
       </c>
       <c r="AF5" t="n">
         <v>7.939338632609748e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.29398148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>460104.367589778</v>
+        <v>601930.4649191562</v>
       </c>
     </row>
     <row r="6">
@@ -27153,28 +27153,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>366.3120168815826</v>
+        <v>480.9040724633444</v>
       </c>
       <c r="AB6" t="n">
-        <v>501.204262043013</v>
+        <v>657.9941679346763</v>
       </c>
       <c r="AC6" t="n">
-        <v>453.3700307182268</v>
+        <v>595.1961280476048</v>
       </c>
       <c r="AD6" t="n">
-        <v>366312.0168815826</v>
+        <v>480904.0724633444</v>
       </c>
       <c r="AE6" t="n">
-        <v>501204.262043013</v>
+        <v>657994.1679346763</v>
       </c>
       <c r="AF6" t="n">
         <v>8.011491715365967e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.07407407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>453370.0307182268</v>
+        <v>595196.1280476048</v>
       </c>
     </row>
   </sheetData>
